--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT128-001 - Akuntansi - Transaksi - EJT - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT128-001 - Akuntansi - Transaksi - EJT - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDFB48B-A77F-46C1-8ACC-B0E7575D627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC9CD55-D062-41A8-9BBF-6876A370B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>run</t>
+  </si>
+  <si>
+    <t>CLM2023010097</t>
+  </si>
+  <si>
+    <t>23/08/2022</t>
   </si>
 </sst>
 </file>
@@ -172,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -192,6 +198,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,9 +797,6 @@
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="75">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -833,6 +839,57 @@
       </c>
       <c r="O6" s="8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="75">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" ref="F7" si="1">"Username : "&amp;G7&amp;",
+Password : "&amp;H7&amp;",
+Search Dokumen ID : "&amp;M7&amp;",
+Tanggal : "&amp;N7</f>
+        <v>Username : 32660,
+Password : bni1234,
+Search Dokumen ID : CLM2023010097,
+Tanggal : 23/08/2022</v>
+      </c>
+      <c r="G7" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
